--- a/Data/2018-06-21_thermal_assays_masterdatasheet.xlsx
+++ b/Data/2018-06-21_thermal_assays_masterdatasheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="14900" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="112">
   <si>
-    <t>run</t>
-  </si>
-  <si>
     <t>line</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>101:10</t>
+  </si>
+  <si>
+    <t>trial</t>
   </si>
 </sst>
 </file>
@@ -414,8 +414,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -441,7 +447,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -450,6 +456,9 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -458,6 +467,9 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -791,7 +803,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -802,34 +814,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -840,13 +852,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>39</v>
@@ -866,13 +878,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>39</v>
@@ -892,13 +904,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>39</v>
@@ -918,13 +930,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>39</v>
@@ -944,13 +956,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>39</v>
@@ -970,13 +982,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>39</v>
@@ -996,13 +1008,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>39</v>
@@ -1022,13 +1034,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>39</v>
@@ -1048,13 +1060,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>39</v>
@@ -1074,13 +1086,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>39</v>
@@ -1100,13 +1112,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>39</v>
@@ -1126,13 +1138,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>39</v>
@@ -1152,13 +1164,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>39</v>
@@ -1178,13 +1190,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>39</v>
@@ -1204,19 +1216,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="F16">
         <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="3">
         <v>43248</v>
@@ -1233,19 +1245,19 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17">
         <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="3">
         <v>43248</v>
@@ -1262,19 +1274,19 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18">
         <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="3">
         <v>43248</v>
@@ -1291,19 +1303,19 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" s="3">
         <v>43248</v>
@@ -1320,19 +1332,19 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20">
         <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="3">
         <v>43248</v>
@@ -1349,19 +1361,19 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21">
         <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="3">
         <v>43248</v>
@@ -1378,19 +1390,19 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22">
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="3">
         <v>43248</v>
@@ -1407,19 +1419,19 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23">
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="3">
         <v>43248</v>
@@ -1436,19 +1448,19 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24">
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="3">
         <v>43248</v>
@@ -1465,19 +1477,19 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25">
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="3">
         <v>43248</v>
@@ -1494,19 +1506,19 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26">
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="3">
         <v>43248</v>
@@ -1523,19 +1535,19 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27">
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="3">
         <v>43248</v>
@@ -1552,19 +1564,19 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28">
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="3">
         <v>43248</v>
@@ -1581,19 +1593,19 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29">
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" s="3">
         <v>43248</v>
@@ -1610,19 +1622,19 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30">
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" s="3">
         <v>43248</v>
@@ -1639,19 +1651,19 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31">
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I31" s="3">
         <v>43248</v>
@@ -1668,19 +1680,19 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32">
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" s="3">
         <v>43248</v>
@@ -1697,19 +1709,19 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33">
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I33" s="3">
         <v>43248</v>
@@ -1726,19 +1738,19 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I34" s="3">
         <v>43248</v>
@@ -1755,19 +1767,19 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I35" s="3">
         <v>43248</v>
@@ -1784,19 +1796,19 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36">
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" s="3">
         <v>43248</v>
@@ -1813,19 +1825,19 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37">
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37" s="3">
         <v>43248</v>
@@ -1842,19 +1854,19 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38">
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I38" s="3">
         <v>43248</v>
@@ -1871,19 +1883,19 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I39" s="3">
         <v>43248</v>
@@ -1900,19 +1912,19 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I40" s="3">
         <v>43248</v>
@@ -1929,19 +1941,19 @@
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41">
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I41" s="3">
         <v>43248</v>
@@ -1958,19 +1970,19 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42">
         <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I42" s="3">
         <v>43248</v>
@@ -1987,19 +1999,19 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43">
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I43" s="3">
         <v>43248</v>
@@ -2016,19 +2028,19 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F44">
         <v>38.5</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I44" s="3">
         <v>43256</v>
@@ -2045,19 +2057,19 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45">
         <v>38.5</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I45" s="3">
         <v>43256</v>
@@ -2074,19 +2086,19 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <v>38.5</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I46" s="3">
         <v>43256</v>
@@ -2103,19 +2115,19 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <v>38.5</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I47" s="3">
         <v>43256</v>
@@ -2132,19 +2144,19 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F48">
         <v>38.5</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I48" s="3">
         <v>43256</v>
@@ -2161,19 +2173,19 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F49">
         <v>38.5</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I49" s="3">
         <v>43256</v>
@@ -2190,19 +2202,19 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F50">
         <v>38.5</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I50" s="3">
         <v>43256</v>
@@ -2219,19 +2231,19 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51">
         <v>38.5</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I51" s="3">
         <v>43256</v>
@@ -2248,19 +2260,19 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F52">
         <v>38.5</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I52" s="3">
         <v>43256</v>
@@ -2277,19 +2289,19 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53">
         <v>38.5</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I53" s="3">
         <v>43256</v>
@@ -2306,19 +2318,19 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F54">
         <v>38.5</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I54" s="3">
         <v>43256</v>
@@ -2335,19 +2347,19 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55">
         <v>38.5</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I55" s="3">
         <v>43256</v>
@@ -2364,19 +2376,19 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F56">
         <v>38.5</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I56" s="3">
         <v>43256</v>
@@ -2393,19 +2405,19 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F57">
         <v>38.5</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I57" s="3">
         <v>43256</v>
@@ -2422,19 +2434,19 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="F58">
         <v>39.1</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I58" s="3">
         <v>43256</v>
@@ -2451,19 +2463,19 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F59">
         <v>39.1</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I59" s="3">
         <v>43256</v>
@@ -2480,19 +2492,19 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F60">
         <v>39.299999999999997</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I60" s="3">
         <v>43256</v>
@@ -2509,19 +2521,19 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F61">
         <v>38.9</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I61" s="3">
         <v>43256</v>
@@ -2538,19 +2550,19 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F62">
         <v>38.9</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I62" s="3">
         <v>43256</v>
@@ -2567,19 +2579,19 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F63">
         <v>38.9</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I63" s="3">
         <v>43256</v>
@@ -2596,19 +2608,19 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F64">
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I64" s="3">
         <v>43256</v>
@@ -2625,19 +2637,19 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F65">
         <v>38.5</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I65" s="3">
         <v>43256</v>
@@ -2654,19 +2666,19 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F66">
         <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I66" s="3">
         <v>43256</v>
@@ -2683,19 +2695,19 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F67">
         <v>39.299999999999997</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I67" s="3">
         <v>43256</v>
@@ -2712,19 +2724,19 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F68">
         <v>38.9</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I68" s="3">
         <v>43256</v>
@@ -2741,19 +2753,19 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F69">
         <v>39.1</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I69" s="3">
         <v>43256</v>
@@ -2770,19 +2782,19 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F70">
         <v>39.1</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I70" s="3">
         <v>43256</v>
@@ -2799,19 +2811,19 @@
         <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F71">
         <v>39.1</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I71" s="3">
         <v>43256</v>
@@ -2828,19 +2840,19 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F72">
         <v>37.5</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I72" s="3">
         <v>43256</v>
@@ -2857,19 +2869,19 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F73">
         <v>37.5</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I73" s="3">
         <v>43256</v>
@@ -2886,19 +2898,19 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F74">
         <v>37.5</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I74" s="3">
         <v>43256</v>
@@ -2915,19 +2927,19 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F75">
         <v>37.5</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I75" s="3">
         <v>43256</v>
@@ -2944,19 +2956,19 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F76">
         <v>37.5</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I76" s="3">
         <v>43256</v>
@@ -2973,19 +2985,19 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77">
         <v>37.5</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I77" s="3">
         <v>43256</v>
@@ -3002,19 +3014,19 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F78">
         <v>37.5</v>
       </c>
       <c r="G78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I78" s="3">
         <v>43256</v>
@@ -3031,19 +3043,19 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F79">
         <v>37.5</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I79" s="3">
         <v>43256</v>
@@ -3060,19 +3072,19 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F80">
         <v>37.5</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I80" s="3">
         <v>43256</v>
@@ -3089,19 +3101,19 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F81">
         <v>37.5</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I81" s="3">
         <v>43256</v>
@@ -3118,19 +3130,19 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F82">
         <v>37.5</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I82" s="3">
         <v>43256</v>
@@ -3147,19 +3159,19 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F83">
         <v>37.5</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I83" s="3">
         <v>43256</v>
@@ -3176,19 +3188,19 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84">
         <v>37.5</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I84" s="3">
         <v>43256</v>
@@ -3205,19 +3217,19 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F85">
         <v>37.5</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I85" s="3">
         <v>43256</v>
@@ -3234,19 +3246,19 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="F86">
         <v>39.5</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I86" s="3">
         <v>43256</v>
@@ -3263,19 +3275,19 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F87">
         <v>38.9</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I87" s="3">
         <v>43256</v>
@@ -3292,19 +3304,19 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F88">
         <v>39.299999999999997</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I88" s="3">
         <v>43256</v>
@@ -3321,19 +3333,19 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F89">
         <v>39.5</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I89" s="3">
         <v>43256</v>
@@ -3350,19 +3362,19 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F90">
         <v>39.200000000000003</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I90" s="3">
         <v>43256</v>
@@ -3379,19 +3391,19 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F91">
         <v>39.299999999999997</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I91" s="3">
         <v>43256</v>
@@ -3408,19 +3420,19 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F92">
         <v>39.5</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I92" s="3">
         <v>43256</v>
@@ -3437,19 +3449,19 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F93">
         <v>39.5</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I93" s="3">
         <v>43256</v>
@@ -3466,19 +3478,19 @@
         <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F94">
         <v>39.299999999999997</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I94" s="3">
         <v>43256</v>
@@ -3495,19 +3507,19 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F95">
         <v>39.200000000000003</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I95" s="3">
         <v>43256</v>
@@ -3524,19 +3536,19 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F96">
         <v>39.4</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I96" s="3">
         <v>43256</v>
@@ -3553,19 +3565,19 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F97">
         <v>39.5</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I97" s="3">
         <v>43256</v>
@@ -3582,19 +3594,19 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F98">
         <v>34.4</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I98" s="3">
         <v>43256</v>
@@ -3611,19 +3623,19 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F99">
         <v>39.5</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I99" s="3">
         <v>43256</v>
@@ -3640,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I100" s="3">
         <v>43263</v>
@@ -3663,13 +3675,13 @@
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I101" s="3">
         <v>43263</v>
@@ -3686,13 +3698,13 @@
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I102" s="3">
         <v>43263</v>
@@ -3709,13 +3721,13 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I103" s="3">
         <v>43263</v>
@@ -3732,13 +3744,13 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I104" s="3">
         <v>43263</v>
@@ -3755,13 +3767,13 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I105" s="3">
         <v>43263</v>
@@ -3778,13 +3790,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I106" s="3">
         <v>43263</v>
@@ -3801,13 +3813,13 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I107" s="3">
         <v>43263</v>
@@ -3824,13 +3836,13 @@
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I108" s="3">
         <v>43263</v>
@@ -3847,13 +3859,13 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I109" s="3">
         <v>43263</v>
@@ -3870,13 +3882,13 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I110" s="3">
         <v>43263</v>
@@ -3893,13 +3905,13 @@
         <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I111" s="3">
         <v>43263</v>
@@ -3916,13 +3928,13 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I112" s="3">
         <v>43263</v>
@@ -3939,13 +3951,13 @@
         <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I113" s="3">
         <v>43263</v>
